--- a/data/trans_bre/CONS_REC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_REC-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,57 +468,57 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -592,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,6</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>201,81%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>93,89%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>143,1%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>5.752540099553132</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>4.694887675271922</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>5.766098171626512</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.647113599755283</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.9591710549782895</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1.508657183931533</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 8,32</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 7,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 8,16</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>49,32; 521,95</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>19,32; 197,34</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>48,04; 301,72</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2.134444003296026</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1.514930408939873</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.758977635278459</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.2755203315297126</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.1498041322051122</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.465899664890997</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.039058436166878</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>8.017968954252233</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>8.835843743586686</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.985738741800342</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.339896443511994</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>3.465316934260821</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,68</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>125,12%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>170,89%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>104,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,25; 3,89</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 4,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,35; 6,17</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>38,12; 266,87</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>84,78; 318,07</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>64,74; 158,49</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>2.555159961152059</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>3.558210873027338</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>4.711704222050792</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.214565880347851</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.817814720264914</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.9919966591088323</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1.132197415981456</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>2.048791146428164</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>3.240064488789494</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.3435013121665075</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.7612256207860223</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.5879058882305739</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>3.854210204226425</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>5.011183798458636</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>6.285877214026883</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.714345377717629</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.417194966805557</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.49815254600042</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>151,07%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>190,86%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>134,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 5,23</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 7,79</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 5,08</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>14,46; 447,39</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>70,43; 451,51</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>46,26; 319,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>3.209057746349611</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>4.979583647286906</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>3.700916241202652</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.486930887694038</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.837489568067187</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1.465983489714925</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1.044544654671971</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>2.425534086644815</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>1.827922629921687</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.173392780308654</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6035703437050829</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.4488636769826738</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>5.557460398405875</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>7.725527976785422</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>5.485823800511863</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.821801518781575</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4.568846773367683</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>3.108176950850545</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,16</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,3</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>156,39%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>159,36%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>109,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 4,35</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 5,32</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,3; 5,32</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>79,17; 266,49</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>95,5; 244,0</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>75,02; 153,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>3.419342682026743</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>4.226042020900739</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>4.458086934063252</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.503029149882034</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.633821520552239</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>1.088786372841774</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>2.03005282193261</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>2.838703882663627</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>3.387888254897999</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.6618627080437001</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.888864434584677</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.7103879088819443</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>4.5750586276282</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>5.453485373825774</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>5.569670219673323</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.593806984432074</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.502519507843868</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.513094885104041</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -921,12 +865,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
